--- a/Data/AL-EH_DWA_Sprint-I_12.xlsx
+++ b/Data/AL-EH_DWA_Sprint-I_12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA Sprint\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B20A8-8DFF-4C08-A8DB-A28EF438D394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="433">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -266,9 +267,6 @@
     <t>Aurich Ostfriesland</t>
   </si>
   <si>
-    <t>Fragebogen fehlt</t>
-  </si>
-  <si>
     <t>Schirumerleegmor</t>
   </si>
   <si>
@@ -1323,12 +1321,15 @@
   </si>
   <si>
     <t>Bremersvörde, Regbz. Stade</t>
+  </si>
+  <si>
+    <t>Fragebogen 11,7 fehlt fehlt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,7 +1382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1692,14 +1693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2469,6 +2470,9 @@
       <c r="I26" t="s">
         <v>15</v>
       </c>
+      <c r="J26" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2481,25 +2485,22 @@
         <v>11</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27">
-        <v>999</v>
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
       </c>
       <c r="G27">
         <v>999</v>
       </c>
-      <c r="H27">
-        <v>999</v>
-      </c>
-      <c r="I27">
-        <v>999</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,13 +2514,13 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>999</v>
@@ -2539,25 +2540,25 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G29">
         <v>999</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,22 +2572,22 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G30">
         <v>999</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2600,10 +2601,10 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>105</v>
@@ -2612,7 +2613,7 @@
         <v>999</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -2629,19 +2630,19 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32">
         <v>999</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -2655,22 +2656,22 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33">
         <v>999</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -2687,19 +2688,19 @@
         <v>13</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34">
         <v>999</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -2722,13 +2723,13 @@
         <v>89</v>
       </c>
       <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" t="s">
         <v>112</v>
-      </c>
-      <c r="G35">
-        <v>999</v>
-      </c>
-      <c r="H35" t="s">
-        <v>113</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -2745,19 +2746,19 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
         <v>90</v>
       </c>
       <c r="F36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" t="s">
         <v>112</v>
-      </c>
-      <c r="G36">
-        <v>999</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -2774,7 +2775,7 @@
         <v>13</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
         <v>91</v>
@@ -2786,7 +2787,7 @@
         <v>999</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -2800,10 +2801,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>92</v>
@@ -2815,7 +2816,7 @@
         <v>999</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -2832,7 +2833,7 @@
         <v>14</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>93</v>
@@ -2844,7 +2845,7 @@
         <v>999</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -2861,7 +2862,7 @@
         <v>14</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
         <v>94</v>
@@ -2873,7 +2874,7 @@
         <v>999</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -2890,19 +2891,19 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
         <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G41">
         <v>999</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -2919,7 +2920,7 @@
         <v>14</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
         <v>96</v>
@@ -2931,7 +2932,7 @@
         <v>999</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -2948,7 +2949,7 @@
         <v>14</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
         <v>97</v>
@@ -2960,7 +2961,7 @@
         <v>999</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -2977,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
@@ -2989,7 +2990,7 @@
         <v>999</v>
       </c>
       <c r="H44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -3006,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>99</v>
@@ -3018,10 +3019,10 @@
         <v>999</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3035,22 +3036,22 @@
         <v>14</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
         <v>100</v>
       </c>
       <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" t="s">
         <v>124</v>
       </c>
-      <c r="G46">
-        <v>999</v>
-      </c>
-      <c r="H46" t="s">
-        <v>125</v>
-      </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3064,22 +3065,22 @@
         <v>14</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" t="s">
         <v>129</v>
       </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
       <c r="H47" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,10 +3091,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -3101,14 +3102,14 @@
       <c r="F48" t="s">
         <v>130</v>
       </c>
-      <c r="G48">
-        <v>999</v>
+      <c r="G48" t="s">
+        <v>165</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" t="s">
-        <v>15</v>
+        <v>124</v>
+      </c>
+      <c r="I48">
+        <v>999</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3128,13 +3129,13 @@
         <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49">
         <v>999</v>
@@ -3151,22 +3152,22 @@
         <v>15</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" t="s">
-        <v>166</v>
+        <v>151</v>
+      </c>
+      <c r="G50">
+        <v>999</v>
       </c>
       <c r="H50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50">
-        <v>999</v>
+        <v>124</v>
+      </c>
+      <c r="I50" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3180,7 +3181,7 @@
         <v>15</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
         <v>132</v>
@@ -3192,10 +3193,10 @@
         <v>999</v>
       </c>
       <c r="H51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3209,22 +3210,22 @@
         <v>15</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52">
-        <v>999</v>
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>155</v>
       </c>
       <c r="H52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,25 +3236,25 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>134</v>
       </c>
       <c r="F53" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="G53">
+        <v>999</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,22 +3268,22 @@
         <v>16</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>135</v>
       </c>
       <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
         <v>158</v>
       </c>
-      <c r="G54">
-        <v>999</v>
-      </c>
-      <c r="H54" t="s">
-        <v>159</v>
-      </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,10 +3294,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>136</v>
@@ -3304,14 +3305,14 @@
       <c r="F55" t="s">
         <v>160</v>
       </c>
-      <c r="G55">
-        <v>999</v>
+      <c r="G55" t="s">
+        <v>161</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,22 +3326,22 @@
         <v>17</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
         <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" t="s">
         <v>162</v>
       </c>
+      <c r="G56">
+        <v>999</v>
+      </c>
       <c r="H56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3354,7 +3355,7 @@
         <v>17</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
         <v>138</v>
@@ -3366,10 +3367,10 @@
         <v>999</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,16 +3390,16 @@
         <v>139</v>
       </c>
       <c r="F58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58">
+        <v>999</v>
+      </c>
+      <c r="H58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" t="s">
         <v>164</v>
-      </c>
-      <c r="G58">
-        <v>999</v>
-      </c>
-      <c r="H58" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,16 +3419,16 @@
         <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59">
         <v>999</v>
       </c>
       <c r="H59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3447,16 +3448,16 @@
         <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G60">
         <v>999</v>
       </c>
       <c r="H60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3470,22 +3471,22 @@
         <v>17</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
         <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G61">
         <v>999</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3499,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
         <v>143</v>
@@ -3511,10 +3512,10 @@
         <v>999</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,7 +3529,7 @@
         <v>17</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
         <v>144</v>
@@ -3540,10 +3541,10 @@
         <v>999</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3557,7 +3558,7 @@
         <v>17</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
@@ -3569,10 +3570,10 @@
         <v>999</v>
       </c>
       <c r="H64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3586,7 +3587,7 @@
         <v>17</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
         <v>146</v>
@@ -3598,10 +3599,10 @@
         <v>999</v>
       </c>
       <c r="H65" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,22 +3616,22 @@
         <v>17</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G66">
         <v>999</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>148</v>
@@ -3656,10 +3657,10 @@
         <v>999</v>
       </c>
       <c r="H67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,7 +3674,7 @@
         <v>17</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>149</v>
@@ -3681,14 +3682,14 @@
       <c r="F68" t="s">
         <v>174</v>
       </c>
-      <c r="G68">
-        <v>999</v>
+      <c r="G68" t="s">
+        <v>175</v>
       </c>
       <c r="H68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,16 +3709,16 @@
         <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
-      </c>
-      <c r="G69" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="G69">
+        <v>999</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3728,25 +3729,25 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G70">
         <v>999</v>
       </c>
       <c r="H70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>177</v>
@@ -3772,10 +3773,10 @@
         <v>999</v>
       </c>
       <c r="H71" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="I71" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3789,19 +3790,19 @@
         <v>18</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>178</v>
       </c>
       <c r="F72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72">
+        <v>999</v>
+      </c>
+      <c r="H72" t="s">
         <v>198</v>
-      </c>
-      <c r="G72">
-        <v>999</v>
-      </c>
-      <c r="H72" t="s">
-        <v>199</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
@@ -3818,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
         <v>179</v>
@@ -3826,11 +3827,11 @@
       <c r="F73" t="s">
         <v>200</v>
       </c>
-      <c r="G73">
-        <v>999</v>
+      <c r="G73" t="s">
+        <v>201</v>
       </c>
       <c r="H73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -3847,22 +3848,22 @@
         <v>18</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
         <v>180</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G74" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="G74">
+        <v>999</v>
       </c>
       <c r="H74" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3876,7 +3877,7 @@
         <v>18</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
         <v>181</v>
@@ -3888,10 +3889,10 @@
         <v>999</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="I75" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3905,7 +3906,7 @@
         <v>18</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>182</v>
@@ -3917,7 +3918,7 @@
         <v>999</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -3934,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
         <v>183</v>
@@ -3946,7 +3947,7 @@
         <v>999</v>
       </c>
       <c r="H77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -3963,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
         <v>184</v>
@@ -3975,7 +3976,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
@@ -3989,10 +3990,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>185</v>
@@ -4004,7 +4005,7 @@
         <v>999</v>
       </c>
       <c r="H79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -4021,7 +4022,7 @@
         <v>19</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>186</v>
@@ -4033,7 +4034,7 @@
         <v>999</v>
       </c>
       <c r="H80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I80" t="s">
         <v>15</v>
@@ -4050,7 +4051,7 @@
         <v>19</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>187</v>
@@ -4062,7 +4063,7 @@
         <v>999</v>
       </c>
       <c r="H81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
@@ -4079,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
         <v>188</v>
@@ -4091,7 +4092,7 @@
         <v>999</v>
       </c>
       <c r="H82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
@@ -4108,7 +4109,7 @@
         <v>19</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
         <v>189</v>
@@ -4120,7 +4121,7 @@
         <v>999</v>
       </c>
       <c r="H83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I83" t="s">
         <v>15</v>
@@ -4137,7 +4138,7 @@
         <v>19</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
         <v>190</v>
@@ -4149,7 +4150,7 @@
         <v>999</v>
       </c>
       <c r="H84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
@@ -4172,13 +4173,13 @@
         <v>191</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G85">
         <v>999</v>
       </c>
       <c r="H85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I85" t="s">
         <v>15</v>
@@ -4195,7 +4196,7 @@
         <v>19</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
         <v>192</v>
@@ -4207,7 +4208,7 @@
         <v>999</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
@@ -4221,10 +4222,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>193</v>
@@ -4236,7 +4237,7 @@
         <v>999</v>
       </c>
       <c r="H87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
@@ -4253,7 +4254,7 @@
         <v>20</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>194</v>
@@ -4265,7 +4266,7 @@
         <v>999</v>
       </c>
       <c r="H88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I88" t="s">
         <v>15</v>
@@ -4282,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
         <v>195</v>
@@ -4294,7 +4295,7 @@
         <v>999</v>
       </c>
       <c r="H89" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
@@ -4311,19 +4312,19 @@
         <v>20</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="F90" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G90">
         <v>999</v>
       </c>
       <c r="H90" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="I90" t="s">
         <v>15</v>
@@ -4340,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
         <v>220</v>
@@ -4352,7 +4353,7 @@
         <v>999</v>
       </c>
       <c r="H91" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
@@ -4369,19 +4370,19 @@
         <v>20</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
         <v>221</v>
       </c>
       <c r="F92" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92">
+        <v>999</v>
+      </c>
+      <c r="H92" t="s">
         <v>231</v>
-      </c>
-      <c r="G92">
-        <v>999</v>
-      </c>
-      <c r="H92" t="s">
-        <v>232</v>
       </c>
       <c r="I92" t="s">
         <v>15</v>
@@ -4398,7 +4399,7 @@
         <v>20</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>222</v>
@@ -4410,7 +4411,7 @@
         <v>999</v>
       </c>
       <c r="H93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -4427,7 +4428,7 @@
         <v>20</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
         <v>223</v>
@@ -4439,7 +4440,7 @@
         <v>999</v>
       </c>
       <c r="H94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
@@ -4453,10 +4454,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>224</v>
@@ -4468,7 +4469,7 @@
         <v>999</v>
       </c>
       <c r="H95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
@@ -4485,7 +4486,7 @@
         <v>21</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>225</v>
@@ -4497,7 +4498,7 @@
         <v>999</v>
       </c>
       <c r="H96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -4514,19 +4515,19 @@
         <v>21</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
         <v>226</v>
       </c>
       <c r="F97" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G97">
         <v>999</v>
       </c>
       <c r="H97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
@@ -4549,13 +4550,13 @@
         <v>227</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G98">
         <v>999</v>
       </c>
       <c r="H98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
@@ -4572,19 +4573,19 @@
         <v>21</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
         <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G99">
         <v>999</v>
       </c>
       <c r="H99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I99" t="s">
         <v>15</v>
@@ -4601,19 +4602,19 @@
         <v>21</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F100" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G100">
         <v>999</v>
       </c>
       <c r="H100" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="I100" t="s">
         <v>15</v>
@@ -4630,19 +4631,19 @@
         <v>21</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E101" t="s">
         <v>239</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G101">
         <v>999</v>
       </c>
       <c r="H101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
@@ -4659,19 +4660,19 @@
         <v>21</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
         <v>240</v>
       </c>
       <c r="F102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G102">
         <v>999</v>
       </c>
       <c r="H102" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="I102" t="s">
         <v>15</v>
@@ -4688,7 +4689,7 @@
         <v>21</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
         <v>241</v>
@@ -4700,7 +4701,7 @@
         <v>999</v>
       </c>
       <c r="H103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I103" t="s">
         <v>15</v>
@@ -4717,7 +4718,7 @@
         <v>21</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
         <v>242</v>
@@ -4729,7 +4730,7 @@
         <v>999</v>
       </c>
       <c r="H104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I104" t="s">
         <v>15</v>
@@ -4743,10 +4744,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>243</v>
@@ -4758,7 +4759,7 @@
         <v>999</v>
       </c>
       <c r="H105" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="I105" t="s">
         <v>15</v>
@@ -4775,19 +4776,19 @@
         <v>22</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
         <v>244</v>
       </c>
       <c r="F106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106">
+        <v>999</v>
+      </c>
+      <c r="H106" t="s">
         <v>256</v>
-      </c>
-      <c r="G106">
-        <v>999</v>
-      </c>
-      <c r="H106" t="s">
-        <v>257</v>
       </c>
       <c r="I106" t="s">
         <v>15</v>
@@ -4804,7 +4805,7 @@
         <v>22</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
         <v>245</v>
@@ -4816,7 +4817,7 @@
         <v>999</v>
       </c>
       <c r="H107" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
@@ -4833,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
         <v>246</v>
@@ -4845,7 +4846,7 @@
         <v>999</v>
       </c>
       <c r="H108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I108" t="s">
         <v>15</v>
@@ -4862,7 +4863,7 @@
         <v>22</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
         <v>247</v>
@@ -4874,7 +4875,7 @@
         <v>999</v>
       </c>
       <c r="H109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I109" t="s">
         <v>15</v>
@@ -4891,19 +4892,19 @@
         <v>22</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G110">
         <v>999</v>
       </c>
       <c r="H110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I110" t="s">
         <v>15</v>
@@ -4917,10 +4918,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
         <v>262</v>
@@ -4932,7 +4933,7 @@
         <v>999</v>
       </c>
       <c r="H111" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="I111" t="s">
         <v>15</v>
@@ -4949,7 +4950,7 @@
         <v>23</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
         <v>263</v>
@@ -4961,7 +4962,7 @@
         <v>999</v>
       </c>
       <c r="H112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I112" t="s">
         <v>15</v>
@@ -4978,7 +4979,7 @@
         <v>23</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
         <v>264</v>
@@ -4990,7 +4991,7 @@
         <v>999</v>
       </c>
       <c r="H113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I113" t="s">
         <v>15</v>
@@ -5007,7 +5008,7 @@
         <v>23</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
         <v>265</v>
@@ -5019,7 +5020,7 @@
         <v>999</v>
       </c>
       <c r="H114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I114" t="s">
         <v>15</v>
@@ -5036,7 +5037,7 @@
         <v>23</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
         <v>266</v>
@@ -5048,7 +5049,7 @@
         <v>999</v>
       </c>
       <c r="H115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I115" t="s">
         <v>15</v>
@@ -5065,7 +5066,7 @@
         <v>23</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
         <v>267</v>
@@ -5077,7 +5078,7 @@
         <v>999</v>
       </c>
       <c r="H116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I116" t="s">
         <v>15</v>
@@ -5094,7 +5095,7 @@
         <v>23</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
         <v>268</v>
@@ -5106,7 +5107,7 @@
         <v>999</v>
       </c>
       <c r="H117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I117" t="s">
         <v>15</v>
@@ -5123,7 +5124,7 @@
         <v>23</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
         <v>269</v>
@@ -5135,7 +5136,7 @@
         <v>999</v>
       </c>
       <c r="H118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I118" t="s">
         <v>15</v>
@@ -5152,7 +5153,7 @@
         <v>23</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
         <v>270</v>
@@ -5164,7 +5165,7 @@
         <v>999</v>
       </c>
       <c r="H119" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="I119" t="s">
         <v>15</v>
@@ -5181,19 +5182,19 @@
         <v>23</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
         <v>271</v>
       </c>
       <c r="F120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G120">
         <v>999</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="I120" t="s">
         <v>15</v>
@@ -5207,10 +5208,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>272</v>
@@ -5222,7 +5223,7 @@
         <v>999</v>
       </c>
       <c r="H121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
@@ -5239,7 +5240,7 @@
         <v>24</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>273</v>
@@ -5251,7 +5252,7 @@
         <v>999</v>
       </c>
       <c r="H122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I122" t="s">
         <v>15</v>
@@ -5268,7 +5269,7 @@
         <v>24</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
         <v>274</v>
@@ -5280,7 +5281,7 @@
         <v>999</v>
       </c>
       <c r="H123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I123" t="s">
         <v>15</v>
@@ -5297,7 +5298,7 @@
         <v>24</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124" t="s">
         <v>275</v>
@@ -5309,7 +5310,7 @@
         <v>999</v>
       </c>
       <c r="H124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I124" t="s">
         <v>15</v>
@@ -5326,7 +5327,7 @@
         <v>24</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
         <v>276</v>
@@ -5338,7 +5339,7 @@
         <v>999</v>
       </c>
       <c r="H125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I125" t="s">
         <v>15</v>
@@ -5355,7 +5356,7 @@
         <v>24</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
         <v>277</v>
@@ -5367,7 +5368,7 @@
         <v>999</v>
       </c>
       <c r="H126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I126" t="s">
         <v>15</v>
@@ -5384,7 +5385,7 @@
         <v>24</v>
       </c>
       <c r="D127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
         <v>278</v>
@@ -5396,7 +5397,7 @@
         <v>999</v>
       </c>
       <c r="H127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I127" t="s">
         <v>15</v>
@@ -5413,7 +5414,7 @@
         <v>24</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E128" t="s">
         <v>279</v>
@@ -5425,7 +5426,7 @@
         <v>999</v>
       </c>
       <c r="H128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I128" t="s">
         <v>15</v>
@@ -5442,19 +5443,19 @@
         <v>24</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
         <v>280</v>
       </c>
       <c r="F129" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G129">
         <v>999</v>
       </c>
       <c r="H129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I129" t="s">
         <v>15</v>
@@ -5471,10 +5472,10 @@
         <v>24</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="F130" t="s">
         <v>312</v>
@@ -5483,7 +5484,7 @@
         <v>999</v>
       </c>
       <c r="H130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I130" t="s">
         <v>15</v>
@@ -5500,7 +5501,7 @@
         <v>24</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
         <v>302</v>
@@ -5508,11 +5509,11 @@
       <c r="F131" t="s">
         <v>313</v>
       </c>
-      <c r="G131">
-        <v>999</v>
+      <c r="G131" t="s">
+        <v>314</v>
       </c>
       <c r="H131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I131" t="s">
         <v>15</v>
@@ -5526,22 +5527,22 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>303</v>
       </c>
       <c r="F132" t="s">
-        <v>314</v>
-      </c>
-      <c r="G132" t="s">
         <v>315</v>
       </c>
+      <c r="G132">
+        <v>999</v>
+      </c>
       <c r="H132" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="I132" t="s">
         <v>15</v>
@@ -5558,19 +5559,19 @@
         <v>25</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
         <v>304</v>
       </c>
       <c r="F133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G133">
         <v>999</v>
       </c>
       <c r="H133" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="I133" t="s">
         <v>15</v>
@@ -5587,7 +5588,7 @@
         <v>25</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
         <v>305</v>
@@ -5599,7 +5600,7 @@
         <v>999</v>
       </c>
       <c r="H134" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="I134" t="s">
         <v>15</v>
@@ -5616,22 +5617,22 @@
         <v>25</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
         <v>306</v>
       </c>
       <c r="F135" t="s">
+        <v>320</v>
+      </c>
+      <c r="G135">
+        <v>999</v>
+      </c>
+      <c r="H135" t="s">
         <v>319</v>
       </c>
-      <c r="G135">
-        <v>999</v>
-      </c>
-      <c r="H135" t="s">
-        <v>317</v>
-      </c>
       <c r="I135" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,22 +5646,22 @@
         <v>25</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" t="s">
         <v>307</v>
       </c>
       <c r="F136" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G136">
         <v>999</v>
       </c>
       <c r="H136" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I136" t="s">
-        <v>322</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5680,13 +5681,13 @@
         <v>308</v>
       </c>
       <c r="F137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G137">
         <v>999</v>
       </c>
       <c r="H137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I137" t="s">
         <v>15</v>
@@ -5703,7 +5704,7 @@
         <v>25</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E138" t="s">
         <v>309</v>
@@ -5715,7 +5716,7 @@
         <v>999</v>
       </c>
       <c r="H138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I138" t="s">
         <v>15</v>
@@ -5732,7 +5733,7 @@
         <v>25</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
         <v>310</v>
@@ -5744,7 +5745,7 @@
         <v>999</v>
       </c>
       <c r="H139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I139" t="s">
         <v>15</v>
@@ -5761,19 +5762,19 @@
         <v>25</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F140" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G140">
         <v>999</v>
       </c>
       <c r="H140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I140" t="s">
         <v>15</v>
@@ -5790,7 +5791,7 @@
         <v>25</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
         <v>326</v>
@@ -5802,7 +5803,7 @@
         <v>999</v>
       </c>
       <c r="H141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I141" t="s">
         <v>15</v>
@@ -5816,10 +5817,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
         <v>327</v>
@@ -5831,10 +5832,10 @@
         <v>999</v>
       </c>
       <c r="H142" t="s">
-        <v>317</v>
-      </c>
-      <c r="I142" t="s">
-        <v>15</v>
+        <v>319</v>
+      </c>
+      <c r="I142">
+        <v>999</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5848,7 +5849,7 @@
         <v>26</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="s">
         <v>328</v>
@@ -5860,7 +5861,7 @@
         <v>999</v>
       </c>
       <c r="H143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I143">
         <v>999</v>
@@ -5877,7 +5878,7 @@
         <v>26</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
         <v>329</v>
@@ -5889,7 +5890,7 @@
         <v>999</v>
       </c>
       <c r="H144" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I144">
         <v>999</v>
@@ -5906,22 +5907,22 @@
         <v>26</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145" t="s">
         <v>330</v>
       </c>
       <c r="F145" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G145">
         <v>999</v>
       </c>
       <c r="H145" t="s">
-        <v>320</v>
-      </c>
-      <c r="I145">
-        <v>999</v>
+        <v>319</v>
+      </c>
+      <c r="I145" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,22 +5936,22 @@
         <v>26</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
         <v>331</v>
       </c>
       <c r="F146" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="G146">
         <v>999</v>
       </c>
       <c r="H146" t="s">
-        <v>320</v>
-      </c>
-      <c r="I146" t="s">
-        <v>320</v>
+        <v>340</v>
+      </c>
+      <c r="I146">
+        <v>999</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5964,22 +5965,22 @@
         <v>26</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E147" t="s">
         <v>332</v>
       </c>
       <c r="F147" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="G147">
         <v>999</v>
       </c>
       <c r="H147" t="s">
-        <v>341</v>
-      </c>
-      <c r="I147">
-        <v>999</v>
+        <v>316</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5993,7 +5994,7 @@
         <v>26</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>333</v>
@@ -6005,10 +6006,10 @@
         <v>999</v>
       </c>
       <c r="H148" t="s">
-        <v>317</v>
-      </c>
-      <c r="I148" t="s">
-        <v>15</v>
+        <v>319</v>
+      </c>
+      <c r="I148">
+        <v>999</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6022,7 +6023,7 @@
         <v>26</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149" t="s">
         <v>334</v>
@@ -6034,7 +6035,7 @@
         <v>999</v>
       </c>
       <c r="H149" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="I149">
         <v>999</v>
@@ -6051,19 +6052,19 @@
         <v>26</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F150" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G150">
         <v>999</v>
       </c>
       <c r="H150" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="I150">
         <v>999</v>
@@ -6077,25 +6078,25 @@
         <v>11</v>
       </c>
       <c r="C151">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>347</v>
       </c>
       <c r="F151" t="s">
+        <v>359</v>
+      </c>
+      <c r="G151" t="s">
         <v>357</v>
       </c>
-      <c r="G151">
-        <v>999</v>
-      </c>
       <c r="H151" t="s">
-        <v>320</v>
-      </c>
-      <c r="I151">
-        <v>999</v>
+        <v>319</v>
+      </c>
+      <c r="I151" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6109,22 +6110,22 @@
         <v>27</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
         <v>348</v>
       </c>
       <c r="F152" t="s">
-        <v>360</v>
-      </c>
-      <c r="G152" t="s">
         <v>358</v>
       </c>
+      <c r="G152">
+        <v>999</v>
+      </c>
       <c r="H152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I152" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6138,22 +6139,22 @@
         <v>27</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
         <v>349</v>
       </c>
       <c r="F153" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G153">
         <v>999</v>
       </c>
       <c r="H153" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="I153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6167,22 +6168,22 @@
         <v>27</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" t="s">
         <v>350</v>
       </c>
       <c r="F154" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G154">
         <v>999</v>
       </c>
       <c r="H154" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,22 +6197,22 @@
         <v>27</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
         <v>351</v>
       </c>
       <c r="F155" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G155">
         <v>999</v>
       </c>
       <c r="H155" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6225,22 +6226,22 @@
         <v>27</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E156" t="s">
         <v>352</v>
       </c>
       <c r="F156" t="s">
-        <v>365</v>
-      </c>
-      <c r="G156">
-        <v>999</v>
+        <v>366</v>
+      </c>
+      <c r="G156" t="s">
+        <v>367</v>
       </c>
       <c r="H156" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6254,22 +6255,22 @@
         <v>27</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
         <v>353</v>
       </c>
       <c r="F157" t="s">
-        <v>367</v>
-      </c>
-      <c r="G157" t="s">
         <v>368</v>
       </c>
+      <c r="G157">
+        <v>999</v>
+      </c>
       <c r="H157" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="I157" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6283,7 +6284,7 @@
         <v>27</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E158" t="s">
         <v>354</v>
@@ -6295,10 +6296,10 @@
         <v>999</v>
       </c>
       <c r="H158" t="s">
-        <v>317</v>
-      </c>
-      <c r="I158" t="s">
-        <v>15</v>
+        <v>370</v>
+      </c>
+      <c r="I158">
+        <v>999</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6312,19 +6313,19 @@
         <v>27</v>
       </c>
       <c r="D159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E159" t="s">
         <v>355</v>
       </c>
       <c r="F159" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G159">
         <v>999</v>
       </c>
       <c r="H159" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="I159">
         <v>999</v>
@@ -6341,22 +6342,22 @@
         <v>27</v>
       </c>
       <c r="D160">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F160" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G160">
         <v>999</v>
       </c>
       <c r="H160" t="s">
-        <v>320</v>
-      </c>
-      <c r="I160">
-        <v>999</v>
+        <v>374</v>
+      </c>
+      <c r="I160" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -6370,7 +6371,7 @@
         <v>27</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
         <v>373</v>
@@ -6382,15 +6383,15 @@
         <v>999</v>
       </c>
       <c r="H161" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I161" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -6399,19 +6400,19 @@
         <v>27</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F162" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="G162">
         <v>999</v>
       </c>
       <c r="H162" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="I162" t="s">
         <v>15</v>
@@ -6419,7 +6420,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -6428,7 +6429,7 @@
         <v>27</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
         <v>380</v>
@@ -6440,15 +6441,15 @@
         <v>999</v>
       </c>
       <c r="H163" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="I163" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -6457,27 +6458,27 @@
         <v>27</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164" t="s">
         <v>381</v>
       </c>
       <c r="F164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G164">
         <v>999</v>
       </c>
       <c r="H164" t="s">
-        <v>402</v>
-      </c>
-      <c r="I164" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="I164">
+        <v>999</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -6486,7 +6487,7 @@
         <v>27</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E165" t="s">
         <v>382</v>
@@ -6498,7 +6499,7 @@
         <v>999</v>
       </c>
       <c r="H165" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I165">
         <v>999</v>
@@ -6506,16 +6507,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
       </c>
       <c r="C166">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>383</v>
@@ -6527,15 +6528,15 @@
         <v>999</v>
       </c>
       <c r="H166" t="s">
-        <v>320</v>
-      </c>
-      <c r="I166">
-        <v>999</v>
+        <v>319</v>
+      </c>
+      <c r="I166" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -6544,27 +6545,27 @@
         <v>28</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
         <v>384</v>
       </c>
       <c r="F167" t="s">
-        <v>405</v>
-      </c>
-      <c r="G167">
-        <v>999</v>
+        <v>406</v>
+      </c>
+      <c r="G167" t="s">
+        <v>407</v>
       </c>
       <c r="H167" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="I167" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -6573,27 +6574,27 @@
         <v>28</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
         <v>385</v>
       </c>
       <c r="F168" t="s">
-        <v>407</v>
-      </c>
-      <c r="G168" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="G168">
+        <v>999</v>
       </c>
       <c r="H168" t="s">
         <v>412</v>
       </c>
       <c r="I168" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -6602,27 +6603,27 @@
         <v>28</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E169" t="s">
         <v>386</v>
       </c>
       <c r="F169" t="s">
+        <v>413</v>
+      </c>
+      <c r="G169">
+        <v>999</v>
+      </c>
+      <c r="H169" t="s">
         <v>411</v>
       </c>
-      <c r="G169">
-        <v>999</v>
-      </c>
-      <c r="H169" t="s">
-        <v>413</v>
-      </c>
       <c r="I169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -6631,7 +6632,7 @@
         <v>28</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E170" t="s">
         <v>387</v>
@@ -6639,19 +6640,19 @@
       <c r="F170" t="s">
         <v>414</v>
       </c>
-      <c r="G170">
-        <v>999</v>
+      <c r="G170" t="s">
+        <v>319</v>
       </c>
       <c r="H170" t="s">
-        <v>412</v>
-      </c>
-      <c r="I170" t="s">
-        <v>410</v>
+        <v>417</v>
+      </c>
+      <c r="I170">
+        <v>999</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -6660,7 +6661,7 @@
         <v>28</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
         <v>388</v>
@@ -6668,19 +6669,19 @@
       <c r="F171" t="s">
         <v>415</v>
       </c>
-      <c r="G171" t="s">
-        <v>320</v>
+      <c r="G171">
+        <v>999</v>
       </c>
       <c r="H171" t="s">
-        <v>418</v>
-      </c>
-      <c r="I171">
-        <v>999</v>
+        <v>408</v>
+      </c>
+      <c r="I171" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -6689,7 +6690,7 @@
         <v>28</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E172" t="s">
         <v>389</v>
@@ -6701,15 +6702,15 @@
         <v>999</v>
       </c>
       <c r="H172" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="I172" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -6718,27 +6719,27 @@
         <v>28</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
         <v>390</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G173">
         <v>999</v>
       </c>
       <c r="H173" t="s">
-        <v>419</v>
-      </c>
-      <c r="I173" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="I173">
+        <v>999</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -6753,13 +6754,13 @@
         <v>391</v>
       </c>
       <c r="F174" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G174">
         <v>999</v>
       </c>
       <c r="H174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I174">
         <v>999</v>
@@ -6767,7 +6768,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -6776,7 +6777,7 @@
         <v>28</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
         <v>392</v>
@@ -6788,15 +6789,15 @@
         <v>999</v>
       </c>
       <c r="H175" t="s">
-        <v>320</v>
-      </c>
-      <c r="I175">
-        <v>999</v>
+        <v>421</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -6805,19 +6806,19 @@
         <v>28</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
         <v>393</v>
       </c>
       <c r="F176" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G176">
         <v>999</v>
       </c>
       <c r="H176" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="I176" t="s">
         <v>15</v>
@@ -6825,7 +6826,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -6834,7 +6835,7 @@
         <v>28</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
         <v>394</v>
@@ -6846,15 +6847,15 @@
         <v>999</v>
       </c>
       <c r="H177" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="I177" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -6863,36 +6864,36 @@
         <v>28</v>
       </c>
       <c r="D178">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E178" t="s">
         <v>395</v>
       </c>
       <c r="F178" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G178">
         <v>999</v>
       </c>
-      <c r="H178" t="s">
-        <v>425</v>
-      </c>
-      <c r="I178" t="s">
-        <v>426</v>
+      <c r="H178">
+        <v>999</v>
+      </c>
+      <c r="I178">
+        <v>999</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E179" t="s">
         <v>396</v>
@@ -6903,25 +6904,25 @@
       <c r="G179">
         <v>999</v>
       </c>
-      <c r="H179">
-        <v>999</v>
-      </c>
-      <c r="I179">
-        <v>999</v>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E180" t="s">
         <v>397</v>
@@ -6933,7 +6934,7 @@
         <v>999</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>429</v>
       </c>
       <c r="I180" t="s">
         <v>15</v>
@@ -6941,59 +6942,30 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
         <v>398</v>
       </c>
       <c r="F181" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G181">
         <v>999</v>
       </c>
       <c r="H181" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I181" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>379</v>
-      </c>
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182">
-        <v>22</v>
-      </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-      <c r="E182" t="s">
-        <v>399</v>
-      </c>
-      <c r="F182" t="s">
-        <v>431</v>
-      </c>
-      <c r="G182">
-        <v>999</v>
-      </c>
-      <c r="H182" t="s">
-        <v>432</v>
-      </c>
-      <c r="I182" t="s">
         <v>15</v>
       </c>
     </row>
